--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\AVR\BikeLamp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\AVR\BikeBrakeLight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DBB061-FEA4-47F3-8EE4-516EF3C60A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2DC765-DFB7-4271-970D-54E778200CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1500" windowWidth="24720" windowHeight="12315" activeTab="1" xr2:uid="{371E822B-7611-4DE1-8025-91A61DD54ABE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>1E</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>68 Ом</t>
+  </si>
+  <si>
+    <t>Ток макс., мА</t>
+  </si>
+  <si>
+    <t>Ток макс.общий, мА</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +326,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -885,18 +892,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5C6CC-1D6F-4D8C-886E-F7464BF30BFD}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -906,8 +923,16 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="9">
+        <f xml:space="preserve"> (3.9 - 2.16) / 100 * 1000</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E2" s="9">
+        <f xml:space="preserve"> D2 * 13</f>
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -917,8 +942,43 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
+      <c r="D3" s="9">
+        <f>1.95/68 * 1000</f>
+        <v>28.676470588235293</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3 * 9</f>
+        <v>258.08823529411762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\AVR\BikeBrakeLight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2DC765-DFB7-4271-970D-54E778200CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476A2357-D494-490C-A380-157333091BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1500" windowWidth="24720" windowHeight="12315" activeTab="1" xr2:uid="{371E822B-7611-4DE1-8025-91A61DD54ABE}"/>
+    <workbookView xWindow="2310" yWindow="1170" windowWidth="20190" windowHeight="13290" activeTab="2" xr2:uid="{371E822B-7611-4DE1-8025-91A61DD54ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Регистры MPU9250" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Индикация" sheetId="2" r:id="rId2"/>
+    <sheet name="Фильтр Баттерворта" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>1E</t>
   </si>
@@ -241,12 +243,45 @@
   <si>
     <t>Ток макс.общий, мА</t>
   </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>i-1</t>
+  </si>
+  <si>
+    <t>i-2</t>
+  </si>
+  <si>
+    <t>i-3</t>
+  </si>
+  <si>
+    <t>Фильтр Баттерворта для выборки 100 Гц и частоты среза 1 Гц</t>
+  </si>
+  <si>
+    <t>Фильтр Баттерворта для выборки 100 Гц и частоты среза 2 Гц</t>
+  </si>
+  <si>
+    <t>Вход</t>
+  </si>
+  <si>
+    <t>Выход</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +294,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -300,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +370,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -894,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5C6CC-1D6F-4D8C-886E-F7464BF30BFD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -981,4 +1032,618 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA1027D-B0AD-44D5-8023-B0376F581631}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.915E-5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>8.7440000000000003E-5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8.7440000000000003E-5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.915E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-2.8744000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.7565</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-0.88190000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>5.5365585999999998E-3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9.8579000000000006E-4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.0557655E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7.8150071000000002E-3</v>
+      </c>
+      <c r="G7" s="10">
+        <f>$B3 * B7 + $C3 * C7 + $D3 * D7 + $E3 * E7 - $C4 * H7 - $D4 * I7 - $E4 * J7</f>
+        <v>-1.5961266986678369</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8.1209003900000007E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.85740065570000001</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.60536366699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>-2.4152828999999998E-3</v>
+      </c>
+      <c r="C8" s="10">
+        <f>B7</f>
+        <v>5.5365585999999998E-3</v>
+      </c>
+      <c r="D8" s="10">
+        <f>C7</f>
+        <v>9.8579000000000006E-4</v>
+      </c>
+      <c r="E8" s="10">
+        <f>D7</f>
+        <v>4.0557655E-3</v>
+      </c>
+      <c r="G8" s="10">
+        <f>$B3 * B8 + $C3 * C8 + $D3 * D8 + $E3 * E8 - $C4 * H8 - $D4 * I8 - $E4 * J8</f>
+        <v>-4.0556169455051201</v>
+      </c>
+      <c r="H8" s="10">
+        <f>G7</f>
+        <v>-1.5961266986678369</v>
+      </c>
+      <c r="I8" s="10">
+        <f>H7</f>
+        <v>8.1209003900000007E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <f>I7</f>
+        <v>0.85740065570000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>-3.9356247999999998E-3</v>
+      </c>
+      <c r="C9" s="10">
+        <f>B8</f>
+        <v>-2.4152828999999998E-3</v>
+      </c>
+      <c r="D9" s="10">
+        <f>C8</f>
+        <v>5.5365585999999998E-3</v>
+      </c>
+      <c r="E9" s="10">
+        <f>D8</f>
+        <v>9.8579000000000006E-4</v>
+      </c>
+      <c r="G9" s="10">
+        <f>$B3 * B9 + $C3 * C9 + $D3 * D9 + $E3 * E9 - $C4 * H9 - $D4 * I9 - $E4 * J9</f>
+        <v>-7.1861236958059518</v>
+      </c>
+      <c r="H9" s="10">
+        <f>G8</f>
+        <v>-4.0556169455051201</v>
+      </c>
+      <c r="I9" s="10">
+        <f>H8</f>
+        <v>-1.5961266986678369</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I8</f>
+        <v>8.1209003900000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>2.0698322999999999E-3</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:E18" si="0">B9</f>
+        <v>-3.9356247999999998E-3</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.4152828999999998E-3</v>
+      </c>
+      <c r="E10" s="10">
+        <f>D9</f>
+        <v>5.5365585999999998E-3</v>
+      </c>
+      <c r="G10" s="10">
+        <f>$B3 * B10 + $C3 * C10 + $D3 * D10 + $E3 * E10 - $C4 * H10 - $D4 * I10 - $E4 * J10</f>
+        <v>-10.884110310092005</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10:J18" si="1">G9</f>
+        <v>-7.1861236958059518</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.0556169455051201</v>
+      </c>
+      <c r="J10" s="10">
+        <f>I9</f>
+        <v>-1.5961266986678369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>-3.9376085999999998E-3</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0698322999999999E-3</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.9356247999999998E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.4152828999999998E-3</v>
+      </c>
+      <c r="G11" s="10">
+        <f>$B3 * B11 + $C3 * C11 + $D3 * D11 + $E3 * E11 - $C4 * H11 - $D4 * I11 - $E4 * J11</f>
+        <v>-15.053385640412001</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>-10.884110310092005</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>-7.1861236958059518</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.0556169455051201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>-2.8644805000000001E-3</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.9376085999999998E-3</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0698322999999999E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.9356247999999998E-3</v>
+      </c>
+      <c r="G12" s="10">
+        <f>$B3 * B12 + $C3 * C12 + $D3 * D12 + $E3 * E12 - $C4 * H12 - $D4 * I12 - $E4 * J12</f>
+        <v>-19.60484446390435</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>-15.053385640412001</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>-10.884110310092005</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>-7.1861236958059518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>-3.6529771E-3</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.8644805000000001E-3</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.9376085999999998E-3</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0698322999999999E-3</v>
+      </c>
+      <c r="G13" s="10">
+        <f>$B3 * B13 + $C3 * C13 + $D3 * D13 + $E3 * E13 - $C4 * H13 - $D4 * I13 - $E4 * J13</f>
+        <v>-24.456204932644464</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>-19.60484446390435</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>-15.053385640412001</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>-10.884110310092005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>-6.0012192000000004E-3</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.6529771E-3</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.8644805000000001E-3</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.9376085999999998E-3</v>
+      </c>
+      <c r="G14" s="10">
+        <f>$B3 * B14 + $C3 * C14 + $D3 * D14 + $E3 * E14 - $C4 * H14 - $D4 * I14 - $E4 * J14</f>
+        <v>-29.531743349523566</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>-24.456204932644464</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>-19.60484446390435</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="1"/>
+        <v>-15.053385640412001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>-7.5937019999999995E-4</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.0012192000000004E-3</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.6529771E-3</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.8644805000000001E-3</v>
+      </c>
+      <c r="G15" s="10">
+        <f>$B3 * B15 + $C3 * C15 + $D3 * D15 + $E3 * E15 - $C4 * H15 - $D4 * I15 - $E4 * J15</f>
+        <v>-34.762027469551512</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>-29.531743349523566</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>-24.456204932644464</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>-19.60484446390435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>3.9340928000000004E-3</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.5937019999999995E-4</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.0012192000000004E-3</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.6529771E-3</v>
+      </c>
+      <c r="G16" s="10">
+        <f>$B3 * B16 + $C3 * C16 + $D3 * D16 + $E3 * E16 - $C4 * H16 - $D4 * I16 - $E4 * J16</f>
+        <v>-40.083648928567726</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>-34.762027469551512</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>-29.531743349523566</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>-24.456204932644464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>-3.3587448000000002E-3</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9340928000000004E-3</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.5937019999999995E-4</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.0012192000000004E-3</v>
+      </c>
+      <c r="G17" s="10">
+        <f>$B3 * B17 + $C3 * C17 + $D3 * D17 + $E3 * E17 - $C4 * H17 - $D4 * I17 - $E4 * J17</f>
+        <v>-45.438956215646357</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>-40.083648928567726</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>-34.762027469551512</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="1"/>
+        <v>-29.531743349523566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>1.5153789999999999E-4</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.3587448000000002E-3</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9340928000000004E-3</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.5937019999999995E-4</v>
+      </c>
+      <c r="G18" s="10">
+        <f>$B3 * B18 + $C3 * C18 + $D3 * D18 + $E3 * E18 - $C4 * H18 - $D4 * I18 - $E4 * J18</f>
+        <v>-50.775789467464328</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>-45.438956215646357</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>-40.083648928567726</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>-34.762027469551512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2.19606224079602E-4</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6.5881867223880795E-4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>6.5881867223880795E-4</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.19606224079602E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-2.7488000000000001</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.5282</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-0.77759999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA92DC-2A9B-4468-8949-0335BD127F6C}">
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>2.19606224079602E-4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6.5881867223880795E-4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>6.5881867223880795E-4</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.19606224079602E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.7488000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.5282</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.77759999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>